--- a/biology/Médecine/Prix_Dickson_en_médecine/Prix_Dickson_en_médecine.xlsx
+++ b/biology/Médecine/Prix_Dickson_en_médecine/Prix_Dickson_en_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_Dickson_en_m%C3%A9decine</t>
+          <t>Prix_Dickson_en_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Prix Dickson en médecine est l'un des 2 Prix Dickson créé en 1969 par Joseph Z. Dickson and Agnes Fischer Dickson.
-Il décerné chaque année par l'Université de Pittsburgh et reconnaît les citoyens américains ayant «apporté une contribution significative et progressive» à la médecine. Le prix comprend une récompense de 50 000 $, une médaille de bronze et une leçon. L'obtention du prix Dickson en médecine est étroitement liée à l'obtention du Prix Albert-Lasker et du prix Nobel de médecine[1].
+Il décerné chaque année par l'Université de Pittsburgh et reconnaît les citoyens américains ayant «apporté une contribution significative et progressive» à la médecine. Le prix comprend une récompense de 50 000 $, une médaille de bronze et une leçon. L'obtention du prix Dickson en médecine est étroitement liée à l'obtention du Prix Albert-Lasker et du prix Nobel de médecine.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix_Dickson_en_m%C3%A9decine</t>
+          <t>Prix_Dickson_en_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1971 : Earl W. Sutherland Jr.
@@ -545,21 +559,21 @@
 1998 : Richard D. Klausner
 1999 : James E. Darnell Jr.
 2000 : Elizabeth H. Blackburn
-2001 : Robert G. Roeder [2]
-2002 : C. David Allis [3]
+2001 : Robert G. Roeder 
+2002 : C. David Allis 
 2003 : Susan Lindquist
 2004 : Elaine Fuchs
-2005 : Ronald W. Davis [4]
-2006 : Roger D. Kornberg [5]
-2007 : Carol W. Greider [6]
-2008 : Randy W. Schekman [7]
-2009 : Victor Ambros [8]
+2005 : Ronald W. Davis 
+2006 : Roger D. Kornberg 
+2007 : Carol W. Greider 
+2008 : Randy W. Schekman 
+2009 : Victor Ambros 
 2010 : Stephen J. Elledge
 2011 : J. Craig Venter
 2012 : Brian J. Druker
-2013 : Huda Y. Zoghbi [9]
-2014 : Jeffrey I. Gordon[10]
-2015 : Karl Deisseroth [11]
+2013 : Huda Y. Zoghbi 
+2014 : Jeffrey I. Gordon
+2015 : Karl Deisseroth 
 2016 : Jennifer Doudna
 2017 : David M. Sabatini
 </t>
